--- a/CountryData/DRC/DRC_Workbook.xlsx
+++ b/CountryData/DRC/DRC_Workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1772f7bbd67a0e3d/Documents/Munk 2020-2021/Mining Shared Value/ElledMap/CountryData/DRC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:40009_{1EBFC148-351C-4251-81D3-29B30F25CC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48C9D480-8900-40A5-9143-8DF939DC297C}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:40009_{1EBFC148-351C-4251-81D3-29B30F25CC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FCE189D-8573-4DF9-9375-235BFE8A1011}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -393,7 +393,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -607,6 +607,14 @@
     <font>
       <b/>
       <u/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="Calibri"/>
@@ -1009,7 +1017,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1029,9 +1037,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1077,6 +1082,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1439,12 +1450,12 @@
   <dimension ref="A2:O34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="77.28515625" customWidth="1"/>
+    <col min="1" max="1" width="58.5703125" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1452,59 +1463,59 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="21"/>
+      <c r="C3" s="20"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="20"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="21"/>
+      <c r="C5" s="20"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="22">
         <v>175</v>
       </c>
-      <c r="C6" s="21"/>
+      <c r="C6" s="20"/>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="21"/>
-    </row>
-    <row r="8" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="20"/>
+    </row>
+    <row r="8" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -1521,15 +1532,15 @@
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
+      <c r="A11" s="25"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1539,124 +1550,124 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-    </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="12" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="15"/>
+      <c r="B25" s="14"/>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="15"/>
+      <c r="B28" s="14"/>
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-    </row>
-    <row r="31" spans="1:15" s="16" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+    </row>
+    <row r="31" spans="1:15" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
+      <c r="B31" s="17"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
@@ -1664,16 +1675,16 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="19"/>
-    </row>
-    <row r="34" spans="1:2" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
+      <c r="B33" s="18"/>
+    </row>
+    <row r="34" spans="1:2" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="18"/>
+      <c r="B34" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/CountryData/DRC/DRC_Workbook.xlsx
+++ b/CountryData/DRC/DRC_Workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1772f7bbd67a0e3d/Documents/Munk 2020-2021/Mining Shared Value/ElledMap/CountryData/DRC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:40009_{1EBFC148-351C-4251-81D3-29B30F25CC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FCE189D-8573-4DF9-9375-235BFE8A1011}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:40009_{1EBFC148-351C-4251-81D3-29B30F25CC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F37C037-CE55-45B5-A630-E2BBED68A13A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,20 +73,6 @@
     <t>ELLED Relevant Legislation:</t>
   </si>
   <si>
-    <r>
-      <t>Modified Mining Code, 2018</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (French)</t>
-    </r>
-  </si>
-  <si>
     <t>ELLED Relevant News:</t>
   </si>
   <si>
@@ -164,29 +150,187 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Don-Serge Hamaweja (2021) – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Enhancing Oil and Gas Sector Attractiveness: The Use of Local Content Policies to Offset Regressive Tax Tools in the Design of Upstream Contracts (Case Study of the Democratic Republic of Congo)</t>
-    </r>
-  </si>
-  <si>
-    <r>
+      <t xml:space="preserve">Modified Mining Code, 2018 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(French)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Subcontracting Rules for the Private Sector, 2017 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(French)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">General Hydrocarbons Regime, 2015 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(French)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hydrocarbon Regulations, 2016 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(French)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Inter-ministerial Local Content Decree, 2014 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(French)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SAIIA (2020) – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Local Procurement Regulations for Extractive Industries in the SADC Region </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Radley (2019) – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The End of the African Mining Enclave? Domestic Marginalization and Labour Fragmentation in the Democratic Republic of Congo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Sara Geenen (2019) – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gold and godfathers: Local content, Politics, and Capitalism in Extractive Industries</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Simmons and Simmons (2018) – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A New Mining Law for the Democratic Republic of Congo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">CMS Bureau Francis Lefebvre (2016) – </t>
     </r>
     <r>
       <rPr>
         <u/>
         <sz val="11"/>
-        <color rgb="FF0070C0"/>
+        <color rgb="FF0563C1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -196,196 +340,71 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Simmons and Simmons (2018) – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A New Mining Law for the Democratic Republic of Congo</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Sara Geenen (2019) –</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Gold and godfathers: Local content, Politics, and Capitalism in Extractive Industries</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Radley (2019) – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The End of the African Mining Enclave? Domestic Marginalization and Labour Fragmentation in the Democratic Republic of Congo</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SAIIA (2020) – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Local Procurement Regulations for Extractive Industries in the SADC Region </t>
-    </r>
-  </si>
-  <si>
-    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Don-Serge Hamaweja (2021) –</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Enhancing Oil and Gas Sector Attractiveness: The Use of Local Content Policies to Offset Regressive Tax Tools in the Design of Upstream Contracts (Case Study of the Democratic Republic of Congo)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">October 2018 – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tanzania Partners with DRC to Process Cobalt</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">August 2018 – </t>
     </r>
     <r>
       <rPr>
         <u/>
         <sz val="11"/>
-        <color rgb="FF0070C0"/>
+        <color rgb="FF0563C1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>A New Mining Code for the DRC</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">October 2018 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tanzania Partners with DRC to Process Cobalt</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Subcontracting Rules for the Private Sector, 2017</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (French)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>General Hydrocarbons Regime, 2015</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (French)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hydrocarbon Regulations, 2016</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (French)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Inter-ministerial Local Content Decree, 2014</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (French)</t>
     </r>
   </si>
 </sst>
@@ -393,7 +412,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -617,6 +636,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1017,7 +1043,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1052,9 +1078,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1089,6 +1112,10 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1450,7 +1477,7 @@
   <dimension ref="A2:O34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection sqref="A1:Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1463,59 +1490,59 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="20"/>
+      <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="20"/>
+      <c r="C4" s="19"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="20"/>
+      <c r="C5" s="19"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="21">
         <v>175</v>
       </c>
-      <c r="C6" s="20"/>
+      <c r="C6" s="19"/>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="C7" s="19"/>
     </row>
     <row r="8" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="24"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -1532,12 +1559,12 @@
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="22" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
+      <c r="A11" s="24"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
@@ -1545,28 +1572,28 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
+      <c r="A13" s="25" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1574,25 +1601,25 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>27</v>
+      <c r="A21" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>26</v>
+      <c r="A22" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="B22" s="1"/>
     </row>
@@ -1601,90 +1628,90 @@
       <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>16</v>
+      <c r="A24" s="12" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="13"/>
+    </row>
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="14"/>
-    </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
+      <c r="A27" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="14"/>
+      <c r="A28" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="13"/>
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
+      <c r="A29" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-    </row>
-    <row r="31" spans="1:15" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17"/>
+      <c r="A30" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+    </row>
+    <row r="31" spans="1:15" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="17"/>
+    </row>
+    <row r="34" spans="1:2" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="18"/>
-    </row>
-    <row r="34" spans="1:2" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="17"/>
+      <c r="B34" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1694,24 +1721,27 @@
     <hyperlink ref="B6" r:id="rId4" display="http://hdr.undp.org/en/content/latest-human-development-index-ranking" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="B7" r:id="rId5" display="https://eiti.org/democratic-republic-of-congo" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="A10" r:id="rId6" display="https://atlas.cid.harvard.edu/countries/46/export-basket" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="A14" r:id="rId7" display="https://www.droit-afrique.com/uploads/RDC-Loi-2017-01-sous-traitance-secteur-prive.pdf" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="A15" r:id="rId8" display="http://extwprlegs1.fao.org/docs/pdf/cng154970.pdf" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="A16" r:id="rId9" display="http://hydrocarbures.gouv.cd/IMG/pdf/decret_no16_010_du_19_avril_2016_portant_reglement_d_hydrocarbures_2_.pdf" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="A17" r:id="rId10" display="http://www.mines-rdc.cd/fr/wp-content/uploads/documents/Arretes/2014/AI0027_2014.pdf?x57237" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="A21" r:id="rId11" display="https://www.theeastafrican.co.ke/business/Tanzania-partners-with-DRCto-process-cobalt/2560-4828826-8ahqpc/index.html" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="A22" r:id="rId12" display="https://www.dlapiper.com/en/morocco/insights/publications/2018/08/democratic-republic-of-congo-mining-code/" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="A25" r:id="rId13" display="https://media.africaportal.org/documents/Policy-Insights-90-de-weerdt-geipel.pdf" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="A26" r:id="rId14" display="http://cegemi.com/wp-content/uploads/2015/08/Radley_2019_The-End-of-the-African-Mining-Enclave-Domestic-Marginalization-and-Labour-Fragmentation-in-the-DRC.pdf" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="A27" r:id="rId15" display="https://ideas.repec.org/a/eee/wdevel/v123y2019ic21.html" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="A28" r:id="rId16" display="https://www.simmons-simmons.com/en/publications/ck0axnd39nq2s0b85x7eqddo3/160318-new-mining-law-for-democratic-republic-of-congo-4fr1ca" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="A29" r:id="rId17" display="https://cms.law/en/media/local/cms-cmno/files/publications/publications/conducting-oil-and-gas-activities-in-the-democratic-republic-of-congo" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="A30" r:id="rId18" display="https://www.researchgate.net/publication/352716448_Enhancing_Oil_and_Gas_Sector_Attractiveness_The_Use_of_Local_Content_Policies_to_Offset_Regressive_Tax_Tools_in_the_Design_of_Upstream_Contracts_Case_Study_of_the_Democratic_Republic_of_Congo" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A14" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A15" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A16" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A17" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A21" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A22" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A25" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A26" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A27" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A28" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A29" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A30" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
     <hyperlink ref="A33" r:id="rId19" display="https://www.giz.de/en/worldwide/19891.html" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
     <hyperlink ref="A34" r:id="rId20" display="https://www.trafigura.com/responsibility/responsible-sourcing/mutoshi-pilot-project/" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A13" r:id="rId21" xr:uid="{1AFAA759-EC9A-4903-ABC9-D75929F0DA64}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <webPublishItems count="1">
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId22"/>
+  <webPublishItems count="2">
     <webPublishItem id="3613" divId="DRC_Workbook_3613" sourceType="range" sourceRef="A1:N35" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\DRC\DRC_Popup.htm" autoRepublish="1"/>
+    <webPublishItem id="20541" divId="DRC_Workbook_20541" sourceType="range" sourceRef="A1:Q35" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\DRC\DRC_Popup.htm" autoRepublish="1"/>
   </webPublishItems>
 </worksheet>
 </file>
--- a/CountryData/DRC/DRC_Workbook.xlsx
+++ b/CountryData/DRC/DRC_Workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1772f7bbd67a0e3d/Documents/Munk 2020-2021/Mining Shared Value/ElledMap/CountryData/DRC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:40009_{1EBFC148-351C-4251-81D3-29B30F25CC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F37C037-CE55-45B5-A630-E2BBED68A13A}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:40009_{1EBFC148-351C-4251-81D3-29B30F25CC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FDA7DDF-7792-4E1B-8AB9-E839D789DF97}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,9 +76,6 @@
     <t>ELLED Relevant News:</t>
   </si>
   <si>
-    <t>July 2020 – Gécamines Lets CNMC Spend Millions Rather than Respect Local Content Rules (Paywall)</t>
-  </si>
-  <si>
     <t>Analysis and Case Studies:</t>
   </si>
   <si>
@@ -150,6 +147,198 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SAIIA (2020) – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Local Procurement Regulations for Extractive Industries in the SADC Region </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Radley (2019) – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The End of the African Mining Enclave? Domestic Marginalization and Labour Fragmentation in the Democratic Republic of Congo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Sara Geenen (2019) – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gold and godfathers: Local content, Politics, and Capitalism in Extractive Industries</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Simmons and Simmons (2018) – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A New Mining Law for the Democratic Republic of Congo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CMS Bureau Francis Lefebvre (2016) – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Conducting Oil and Gas Activities in the Democratic Republic of Congo (‘DRC’)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Don-Serge Hamaweja (2021) –</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Enhancing Oil and Gas Sector Attractiveness: The Use of Local Content Policies to Offset Regressive Tax Tools in the Design of Upstream Contracts (Case Study of the Democratic Republic of Congo)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">October 2018 – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tanzania Partners with DRC to Process Cobalt</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">August 2018 – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A New Mining Code for the DRC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Modified Mining Code, 2018 </t>
     </r>
     <r>
@@ -165,7 +354,26 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Subcontracting Rules for the Private Sector, 2017 </t>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Subcontracting Rules for the Private Sector, 2017</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +388,26 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">General Hydrocarbons Regime, 2015 </t>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>General Hydrocarbons Regime, 2015</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -195,6 +422,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Hydrocarbon Regulations, 2016 </t>
     </r>
     <r>
@@ -210,7 +445,26 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Inter-ministerial Local Content Decree, 2014 </t>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Inter-ministerial Local Content Decree, 2014</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -232,7 +486,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">SAIIA (2020) – </t>
+      <t xml:space="preserve">July 2020 – </t>
     </r>
     <r>
       <rPr>
@@ -243,168 +497,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Local Procurement Regulations for Extractive Industries in the SADC Region </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Radley (2019) – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The End of the African Mining Enclave? Domestic Marginalization and Labour Fragmentation in the Democratic Republic of Congo</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Sara Geenen (2019) – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Gold and godfathers: Local content, Politics, and Capitalism in Extractive Industries</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Simmons and Simmons (2018) – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A New Mining Law for the Democratic Republic of Congo</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">CMS Bureau Francis Lefebvre (2016) – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Conducting Oil and Gas Activities in the Democratic Republic of Congo (‘DRC’)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Don-Serge Hamaweja (2021) –</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Enhancing Oil and Gas Sector Attractiveness: The Use of Local Content Policies to Offset Regressive Tax Tools in the Design of Upstream Contracts (Case Study of the Democratic Republic of Congo)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">October 2018 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tanzania Partners with DRC to Process Cobalt</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">August 2018 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A New Mining Code for the DRC</t>
+      <t xml:space="preserve">Gécamines Lets CNMC Spend Millions Rather than Respect Local Content Rules </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Paywall)</t>
     </r>
   </si>
 </sst>
@@ -1477,7 +1580,7 @@
   <dimension ref="A2:O34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q35"/>
+      <selection activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1573,27 +1676,27 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1605,21 +1708,21 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>14</v>
+      <c r="A20" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B22" s="1"/>
     </row>
@@ -1629,18 +1732,18 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B25" s="13"/>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -1652,7 +1755,7 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -1660,13 +1763,13 @@
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B28" s="13"/>
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -1675,7 +1778,7 @@
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -1698,18 +1801,18 @@
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B33" s="17"/>
     </row>
     <row r="34" spans="1:2" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" s="16"/>
     </row>
@@ -1736,12 +1839,12 @@
     <hyperlink ref="A33" r:id="rId19" display="https://www.giz.de/en/worldwide/19891.html" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
     <hyperlink ref="A34" r:id="rId20" display="https://www.trafigura.com/responsibility/responsible-sourcing/mutoshi-pilot-project/" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
     <hyperlink ref="A13" r:id="rId21" xr:uid="{1AFAA759-EC9A-4903-ABC9-D75929F0DA64}"/>
+    <hyperlink ref="A20" r:id="rId22" xr:uid="{4911B6AB-C32B-4485-BDF2-28A17A03DAC8}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId22"/>
-  <webPublishItems count="2">
-    <webPublishItem id="3613" divId="DRC_Workbook_3613" sourceType="range" sourceRef="A1:N35" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\DRC\DRC_Popup.htm" autoRepublish="1"/>
-    <webPublishItem id="20541" divId="DRC_Workbook_20541" sourceType="range" sourceRef="A1:Q35" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\DRC\DRC_Popup.htm" autoRepublish="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId23"/>
+  <webPublishItems count="1">
+    <webPublishItem id="25738" divId="DRC_Workbook_25738" sourceType="range" sourceRef="A1:Q35" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\DRC\DRC_Popup.htm" autoRepublish="1"/>
   </webPublishItems>
 </worksheet>
 </file>